--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed4/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.964</v>
+        <v>6.922</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.564</v>
+        <v>6.798999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.184</v>
+        <v>6.243</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.01</v>
+        <v>-12.871</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.542</v>
+        <v>-21.22</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.01</v>
+        <v>-12.449</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.404</v>
+        <v>6.568</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.404999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.372</v>
+        <v>-21.786</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.218</v>
+        <v>-20.763</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.282</v>
+        <v>-21.751</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.814</v>
+        <v>-21.664</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,10 +788,10 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.548</v>
+        <v>6.568000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.332</v>
+        <v>-13.339</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
